--- a/biology/Zoologie/Dipsadoboa_viridis/Dipsadoboa_viridis.xlsx
+++ b/biology/Zoologie/Dipsadoboa_viridis/Dipsadoboa_viridis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsadoboa viridis est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsadoboa viridis est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du Liberia au Cameroun, en Guinée équatoriale, au Gabon, en République centrafricaine, en République du Congo et en République démocratique du Congo (à l'exception du Sud de ce pays)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du Liberia au Cameroun, en Guinée équatoriale, au Gabon, en République centrafricaine, en République du Congo et en République démocratique du Congo (à l'exception du Sud de ce pays).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une partie de la série type de Dipsadomorphus brevirostris est synonyme de Dipsadoboa viridis et une autre partie de Dipsadoboa duchesnii.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Peters indique que le spécimen en sa possession mesure 72 cm dont 18 cm pour la queue. Son dos est vert et sa face ventrale vert jaunâtre.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Peters indique que le spécimen en sa possession mesure 72 cm dont 18 cm pour la queue. Son dos est vert et sa face ventrale vert jaunâtre.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Dipsadoboa viridis gracilis Laurent, 1956
 Dipsadoboa viridis viridis (Peters, 1869)</t>
         </is>
@@ -636,7 +656,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d’espèce, du latin viridis, « vert », lui a été donné en référence à sa coloration.
 </t>
@@ -667,7 +689,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Peters, 1869 : Über neue Gattungen und neue oder weniger bekannte Arten von Amphibien (Eremias, Dicrodon, Euprepes, Lygosoma, Typhlops, Eryx, Rhynchonyx, Elapomorphus, Achalinus, Coronella, Dromicus, Xenopholis, Anoplodipsas, Spilotes, Tropidonotus). Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 432-447 (texte intégral).
 Laurent, 1956 : Contribution à l'herpétologie de la région des Grands Lacs de l'Afrique centrale. I. Généeralites, II. Cheloniens, III. Ophidiens. Annales du Musée du Congo Belge Zoologiques, sér. 8, vol. 48, p. 1-390.</t>
